--- a/examples/image/artifact/script/image.xlsx
+++ b/examples/image/artifact/script/image.xlsx
@@ -27,10 +27,10 @@
     <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -46,12 +46,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6484" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7031" uniqueCount="540">
   <si>
     <t>description</t>
   </si>
@@ -1659,6 +1659,33 @@
   </si>
   <si>
     <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1693,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2854,8 +2881,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="334">
+  <fills count="361">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4744,8 +4872,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="343">
     <border>
       <left/>
       <right/>
@@ -7707,6 +7988,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -7892,7 +8499,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8501,52 +9108,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="306" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="306" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="309" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="309" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="312" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="312" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="315" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="315" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="318" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="321" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="321" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="324" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="324" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="327" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="327" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="327" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="330" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="330" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="315" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="333" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="336" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="339" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="342" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="345" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="348" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="351" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="342" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="354" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="354" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="357" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="360" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8871,7 +9526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9393,6 +10048,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>531</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -9433,7 +10091,7 @@
         <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>231</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8">
@@ -9489,7 +10147,7 @@
         <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>232</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9">
@@ -9536,7 +10194,7 @@
         <v>187</v>
       </c>
       <c r="AD9" t="s">
-        <v>233</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
@@ -9577,7 +10235,7 @@
         <v>188</v>
       </c>
       <c r="AD10" t="s">
-        <v>474</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -9615,7 +10273,7 @@
         <v>258</v>
       </c>
       <c r="AD11" t="s">
-        <v>500</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -9635,7 +10293,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>532</v>
       </c>
       <c r="N12" t="s">
         <v>521</v>
@@ -9653,7 +10311,7 @@
         <v>189</v>
       </c>
       <c r="AD12" t="s">
-        <v>501</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -9673,7 +10331,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>94</v>
@@ -9688,7 +10346,7 @@
         <v>190</v>
       </c>
       <c r="AD13" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
@@ -9708,7 +10366,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="Q14" t="s">
         <v>95</v>
@@ -9723,7 +10381,7 @@
         <v>191</v>
       </c>
       <c r="AD14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
@@ -9740,7 +10398,7 @@
         <v>487</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>491</v>
@@ -9755,7 +10413,7 @@
         <v>192</v>
       </c>
       <c r="AD15" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
@@ -9772,7 +10430,7 @@
         <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>492</v>
@@ -9787,7 +10445,7 @@
         <v>193</v>
       </c>
       <c r="AD16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
@@ -9803,6 +10461,9 @@
       <c r="K17" t="s">
         <v>82</v>
       </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
       <c r="Y17" t="s">
         <v>493</v>
       </c>
@@ -9810,7 +10471,7 @@
         <v>466</v>
       </c>
       <c r="AD17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
@@ -9830,7 +10491,7 @@
         <v>104</v>
       </c>
       <c r="AD18" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
@@ -9850,7 +10511,7 @@
         <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>234</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20">
@@ -9870,7 +10531,7 @@
         <v>106</v>
       </c>
       <c r="AD20" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21">
@@ -9890,7 +10551,7 @@
         <v>107</v>
       </c>
       <c r="AD21" t="s">
-        <v>236</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22">
@@ -9909,6 +10570,9 @@
       <c r="Y22" t="s">
         <v>494</v>
       </c>
+      <c r="AD22" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -9926,6 +10590,9 @@
       <c r="Y23" t="s">
         <v>108</v>
       </c>
+      <c r="AD23" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -9943,6 +10610,9 @@
       <c r="Y24" t="s">
         <v>109</v>
       </c>
+      <c r="AD24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -9960,6 +10630,9 @@
       <c r="Y25" t="s">
         <v>110</v>
       </c>
+      <c r="AD25" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -9977,6 +10650,9 @@
       <c r="Y26" t="s">
         <v>111</v>
       </c>
+      <c r="AD26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -9994,6 +10670,9 @@
       <c r="Y27" t="s">
         <v>112</v>
       </c>
+      <c r="AD27" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -10224,7 +10903,7 @@
         <v>367</v>
       </c>
       <c r="Y50" t="s">
-        <v>126</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51">
@@ -10232,7 +10911,7 @@
         <v>301</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -10240,7 +10919,7 @@
         <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
@@ -10248,7 +10927,7 @@
         <v>331</v>
       </c>
       <c r="Y53" t="s">
-        <v>495</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -10256,7 +10935,7 @@
         <v>267</v>
       </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55">
@@ -10264,7 +10943,7 @@
         <v>291</v>
       </c>
       <c r="Y55" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56">
@@ -10272,7 +10951,7 @@
         <v>292</v>
       </c>
       <c r="Y56" t="s">
-        <v>346</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -10280,7 +10959,7 @@
         <v>293</v>
       </c>
       <c r="Y57" t="s">
-        <v>464</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
@@ -10288,7 +10967,7 @@
         <v>302</v>
       </c>
       <c r="Y58" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
@@ -10296,7 +10975,7 @@
         <v>311</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -10304,7 +10983,7 @@
         <v>337</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61">
@@ -10312,7 +10991,7 @@
         <v>308</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
@@ -10320,7 +10999,7 @@
         <v>309</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -10328,7 +11007,7 @@
         <v>368</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -10336,7 +11015,7 @@
         <v>369</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -10344,7 +11023,7 @@
         <v>345</v>
       </c>
       <c r="Y65" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -10352,7 +11031,7 @@
         <v>312</v>
       </c>
       <c r="Y66" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67">
@@ -10360,7 +11039,7 @@
         <v>268</v>
       </c>
       <c r="Y67" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
@@ -10368,7 +11047,7 @@
         <v>525</v>
       </c>
       <c r="Y68" t="s">
-        <v>388</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
@@ -10376,7 +11055,7 @@
         <v>313</v>
       </c>
       <c r="Y69" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70">
@@ -10384,7 +11063,7 @@
         <v>409</v>
       </c>
       <c r="Y70" t="s">
-        <v>137</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71">
@@ -10392,7 +11071,7 @@
         <v>303</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -10400,7 +11079,7 @@
         <v>410</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -10408,7 +11087,7 @@
         <v>261</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -10416,7 +11095,7 @@
         <v>510</v>
       </c>
       <c r="Y74" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -10424,7 +11103,7 @@
         <v>344</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
@@ -10432,7 +11111,7 @@
         <v>279</v>
       </c>
       <c r="Y76" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
@@ -10440,7 +11119,7 @@
         <v>285</v>
       </c>
       <c r="Y77" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="78">
@@ -10448,7 +11127,7 @@
         <v>290</v>
       </c>
       <c r="Y78" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -10456,7 +11135,7 @@
         <v>428</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80">
@@ -10464,7 +11143,7 @@
         <v>332</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81">
@@ -10472,7 +11151,7 @@
         <v>269</v>
       </c>
       <c r="Y81" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82">
@@ -10480,7 +11159,7 @@
         <v>280</v>
       </c>
       <c r="Y82" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83">
@@ -10488,7 +11167,7 @@
         <v>286</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
@@ -10496,7 +11175,7 @@
         <v>275</v>
       </c>
       <c r="Y84" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85">
@@ -10504,7 +11183,7 @@
         <v>530</v>
       </c>
       <c r="Y85" t="s">
-        <v>497</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -10512,7 +11191,7 @@
         <v>270</v>
       </c>
       <c r="Y86" t="s">
-        <v>198</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87">
@@ -10520,7 +11199,7 @@
         <v>287</v>
       </c>
       <c r="Y87" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -10528,7 +11207,7 @@
         <v>271</v>
       </c>
       <c r="Y88" t="s">
-        <v>199</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89">
@@ -10536,7 +11215,7 @@
         <v>272</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -10544,7 +11223,7 @@
         <v>304</v>
       </c>
       <c r="Y90" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -10552,7 +11231,7 @@
         <v>310</v>
       </c>
       <c r="Y91" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92">
@@ -10560,7 +11239,7 @@
         <v>294</v>
       </c>
       <c r="Y92" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
@@ -10568,7 +11247,7 @@
         <v>340</v>
       </c>
       <c r="Y93" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94">
@@ -10576,7 +11255,7 @@
         <v>276</v>
       </c>
       <c r="Y94" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="95">
@@ -10584,171 +11263,176 @@
         <v>277</v>
       </c>
       <c r="Y95" t="s">
-        <v>202</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>498</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>523</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>382</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>148</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>443</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>168</v>
       </c>
     </row>
